--- a/fgt-tables/fgt_uf_estado_sm.xlsx
+++ b/fgt-tables/fgt_uf_estado_sm.xlsx
@@ -381,10 +381,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.1827515133741625</v>
+        <v>0.1536571082941495</v>
       </c>
       <c r="C2">
-        <v>0.009880634911363309</v>
+        <v>0.007880603898588433</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.1824321250549353</v>
+        <v>0.1516179388671393</v>
       </c>
       <c r="C3">
-        <v>0.005939911842864183</v>
+        <v>0.005097474193638084</v>
       </c>
     </row>
     <row r="4">
@@ -407,10 +407,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.1264223597667665</v>
+        <v>0.1037018627532246</v>
       </c>
       <c r="C4">
-        <v>0.01188806131250755</v>
+        <v>0.009905294808171879</v>
       </c>
     </row>
     <row r="5">
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.1767439010111952</v>
+        <v>0.1399417651980184</v>
       </c>
       <c r="C5">
-        <v>0.007401703208949352</v>
+        <v>0.005987103466052585</v>
       </c>
     </row>
     <row r="6">
@@ -433,10 +433,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.1554971580161998</v>
+        <v>0.1371549113739589</v>
       </c>
       <c r="C6">
-        <v>0.004996118956063937</v>
+        <v>0.004491256046903486</v>
       </c>
     </row>
     <row r="7">
@@ -446,10 +446,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.1446408598915671</v>
+        <v>0.1249692427989344</v>
       </c>
       <c r="C7">
-        <v>0.004537251598354536</v>
+        <v>0.00370402940077491</v>
       </c>
     </row>
     <row r="8">
@@ -459,10 +459,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.03050364644673063</v>
+        <v>0.0293795189687763</v>
       </c>
       <c r="C8">
-        <v>0.003253038124788436</v>
+        <v>0.003443177052883914</v>
       </c>
     </row>
     <row r="9">
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.0575112926489202</v>
+        <v>0.04871052356493595</v>
       </c>
       <c r="C9">
-        <v>0.003624594141571293</v>
+        <v>0.002913384310429519</v>
       </c>
     </row>
     <row r="10">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.05168067930894495</v>
+        <v>0.04989450689009931</v>
       </c>
       <c r="C10">
-        <v>0.0036730969022568</v>
+        <v>0.003206117676254823</v>
       </c>
     </row>
     <row r="11">
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.2215774834012776</v>
+        <v>0.1983401934258983</v>
       </c>
       <c r="C11">
-        <v>0.005008436745656349</v>
+        <v>0.004579205518509769</v>
       </c>
     </row>
     <row r="12">
@@ -511,10 +511,10 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.04100538910518243</v>
+        <v>0.03798669590737686</v>
       </c>
       <c r="C12">
-        <v>0.003658605691375842</v>
+        <v>0.003515224064623143</v>
       </c>
     </row>
     <row r="13">
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.04200457326664053</v>
+        <v>0.03872508620183829</v>
       </c>
       <c r="C13">
-        <v>0.003638829031230177</v>
+        <v>0.003459639847295806</v>
       </c>
     </row>
     <row r="14">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.05566474453351827</v>
+        <v>0.05022480647464247</v>
       </c>
       <c r="C14">
-        <v>0.002460337669376526</v>
+        <v>0.002152708316298212</v>
       </c>
     </row>
     <row r="15">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.15665372461667</v>
+        <v>0.1337707912643739</v>
       </c>
       <c r="C15">
-        <v>0.00609722981696949</v>
+        <v>0.005325784004065728</v>
       </c>
     </row>
     <row r="16">
@@ -563,10 +563,10 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.1571503948693895</v>
+        <v>0.1368996414401284</v>
       </c>
       <c r="C16">
-        <v>0.006802662361103978</v>
+        <v>0.005796523448466573</v>
       </c>
     </row>
     <row r="17">
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.04020639895364914</v>
+        <v>0.03884856486458806</v>
       </c>
       <c r="C17">
-        <v>0.002640107082476699</v>
+        <v>0.002505054361795038</v>
       </c>
     </row>
     <row r="18">
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.15673614722666</v>
+        <v>0.1343874115046534</v>
       </c>
       <c r="C18">
-        <v>0.005519724120805058</v>
+        <v>0.004755544763924292</v>
       </c>
     </row>
     <row r="19">
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.1615987391445506</v>
+        <v>0.1403311096871182</v>
       </c>
       <c r="C19">
-        <v>0.006900536445938075</v>
+        <v>0.00633846380551314</v>
       </c>
     </row>
     <row r="20">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.05872067311462093</v>
+        <v>0.05362589222037201</v>
       </c>
       <c r="C20">
-        <v>0.002628659281781672</v>
+        <v>0.002516978498366101</v>
       </c>
     </row>
     <row r="21">
@@ -628,10 +628,10 @@
         </is>
       </c>
       <c r="B21">
-        <v>0.13667175429115</v>
+        <v>0.1199500569974116</v>
       </c>
       <c r="C21">
-        <v>0.007595116451717528</v>
+        <v>0.006695383757875992</v>
       </c>
     </row>
     <row r="22">
@@ -641,10 +641,10 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.03235420075053157</v>
+        <v>0.02880739807973138</v>
       </c>
       <c r="C22">
-        <v>0.002273715030202144</v>
+        <v>0.00199268858423212</v>
       </c>
     </row>
     <row r="23">
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B23">
-        <v>0.07261052736192736</v>
+        <v>0.06283680381659217</v>
       </c>
       <c r="C23">
-        <v>0.007124016995153313</v>
+        <v>0.00539989303889962</v>
       </c>
     </row>
     <row r="24">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.1445344747675425</v>
+        <v>0.1203405918713406</v>
       </c>
       <c r="C24">
-        <v>0.00902684010815958</v>
+        <v>0.007883563098841322</v>
       </c>
     </row>
     <row r="25">
@@ -680,10 +680,10 @@
         </is>
       </c>
       <c r="B25">
-        <v>0.02220688596508584</v>
+        <v>0.023202632636339</v>
       </c>
       <c r="C25">
-        <v>0.001537057518304643</v>
+        <v>0.00161971739654528</v>
       </c>
     </row>
     <row r="26">
@@ -693,10 +693,10 @@
         </is>
       </c>
       <c r="B26">
-        <v>0.03853331685340627</v>
+        <v>0.03475254437127415</v>
       </c>
       <c r="C26">
-        <v>0.002758152462643647</v>
+        <v>0.002241529781331938</v>
       </c>
     </row>
     <row r="27">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="B27">
-        <v>0.1541249991331858</v>
+        <v>0.1326423319749513</v>
       </c>
       <c r="C27">
-        <v>0.006837556229490742</v>
+        <v>0.005868307862604651</v>
       </c>
     </row>
     <row r="28">
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.1110031446385477</v>
+        <v>0.09238669325292741</v>
       </c>
       <c r="C28">
-        <v>0.007586548734590769</v>
+        <v>0.006468365543001525</v>
       </c>
     </row>
   </sheetData>
